--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chinnu Lalu\IdeaProjects\qalegent\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AEB716-5581-489D-B23E-8F3C2E49906B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC67B253-68D3-4560-8C9A-B9F1269ABA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -418,13 +418,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" customWidth="1"/>
+    <col min="2" max="3" width="11.36328125" customWidth="1"/>
     <col min="4" max="4" width="28.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -487,9 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6B83FD-CEB5-4958-8F76-760DBC2A579E}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -552,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF360095-9C26-440A-A86F-3EF824E281EB}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
